--- a/TP4/Ejercicio-2/Cálculos.xlsx
+++ b/TP4/Ejercicio-2/Cálculos.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\germa\Documents\GitHub\LABO\TP4\Ejercicio-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A421005-35A0-4E2C-BD4B-C9EC4C74901E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EBE628-80BF-45E9-A28B-B4BA98101641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{150D0140-DD95-49BE-91AF-880EEFCE36FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{150D0140-DD95-49BE-91AF-880EEFCE36FC}"/>
   </bookViews>
   <sheets>
     <sheet name="R=16K" sheetId="2" r:id="rId1"/>
-    <sheet name="R=K795" sheetId="1" r:id="rId2"/>
-    <sheet name="R=8K" sheetId="3" r:id="rId3"/>
+    <sheet name="R=K795" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="R=8K" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>f[Hz]</t>
   </si>
@@ -63,13 +64,38 @@
   <si>
     <t>R2[Ohm]</t>
   </si>
+  <si>
+    <t>200 K Valor real de las resistencias</t>
+  </si>
+  <si>
+    <t>P1 800 Ohm</t>
+  </si>
+  <si>
+    <t>P2 816 Ohm</t>
+  </si>
+  <si>
+    <t>\textbf{Error [\%]}</t>
+  </si>
+  <si>
+    <t>$\mathbf{f_g \ [kHz]}$</t>
+  </si>
+  <si>
+    <t>$\mathbf{f_c \ [kHz]}$</t>
+  </si>
+  <si>
+    <t>$\mathbf{P_{R1} + P_{R2} \ [k\Omega]}$</t>
+  </si>
+  <si>
+    <t>$\mathbf{P_{R3} + P_{R4} \ [k\Omega]}$</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -100,10 +126,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F81C4A-4B2E-4256-A411-1C957A1CC369}">
-  <dimension ref="C1:L46"/>
+  <dimension ref="C1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E40"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,22 +509,20 @@
       <c r="C2" s="1">
         <v>10000</v>
       </c>
-      <c r="D2" s="2">
-        <f>$H$2*$K$2*ABS((2*PI()*C2*$J$2*$I$2)/((2*PI()*C2*$J$2*$I$2)+1))*$L$2</f>
-        <v>1.1109827468117764E-2</v>
-      </c>
-      <c r="E2" s="2">
-        <f>$H$2*$K$2*ABS(((2*PI()*C2*$J$2*$I$2)+1))*$L$2</f>
-        <v>4.4439309883188172E-2</v>
-      </c>
-      <c r="G2">
-        <v>795</v>
+      <c r="D2" s="4">
+        <f>$H$2*$K$2*ABS((2*PI()*C2*$J$2*I2)/((2*PI()*C2*$J$2*I2)+1))*$L$2</f>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <f>$H$2*$K$2*ABS(((2*PI()*C2*$J$2*I2)+1))*$L$2</f>
+        <v>4.444E-2</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
-      <c r="I2">
-        <v>15915</v>
+      <c r="I2" s="3">
+        <f>1/(2*PI()*C2*$J$2)</f>
+        <v>15915.494309189533</v>
       </c>
       <c r="J2" s="1">
         <v>1.0000000000000001E-9</v>
@@ -495,554 +539,717 @@
         <f>C2+5000</f>
         <v>15000</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D40" si="0">$H$2*$K$2*ABS((2*PI()*C3*$J$2*$I$2)/((2*PI()*C3*$J$2*$I$2)+1))*$L$2</f>
-        <v>1.3331834368878619E-2</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E40" si="1">$H$2*$K$2*ABS(((2*PI()*C3*$J$2*$I$2)+1))*$L$2</f>
-        <v>5.5548964824782249E-2</v>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D41" si="0">$H$2*$K$2*ABS((2*PI()*C3*$J$2*I3)/((2*PI()*C3*$J$2*I3)+1))*$L$2</f>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E41" si="1">$H$2*$K$2*ABS(((2*PI()*C3*$J$2*I3)+1))*$L$2</f>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I41" si="2">1/(2*PI()*C3*$J$2)</f>
+        <v>10610.32953945969</v>
       </c>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C46" si="2">C3+5000</f>
-        <v>20000</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>1.4813179970866355E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="1"/>
-        <v>6.665861976637634E-2</v>
+        <v>65010</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="I4" s="3">
+        <f t="shared" si="2"/>
+        <v>2448.1609458836383</v>
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
-        <f t="shared" si="2"/>
-        <v>25000</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5871287728138346E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="1"/>
-        <v>7.7768274707970403E-2</v>
+        <f>C3+5000</f>
+        <v>20000</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="2"/>
+        <v>7957.7471545947665</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
-        <f t="shared" si="2"/>
-        <v>30000</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>1.6664870600083571E-2</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="1"/>
-        <v>8.8877929649564508E-2</v>
+        <f t="shared" ref="C6:C41" si="3">C5+5000</f>
+        <v>25000</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="2"/>
+        <v>6366.1977236758139</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
-        <f t="shared" si="2"/>
-        <v>35000</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>1.7282102939891818E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="1"/>
-        <v>9.9987584591158571E-2</v>
+        <f t="shared" si="3"/>
+        <v>30000</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="2"/>
+        <v>5305.1647697298449</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
-        <f t="shared" si="2"/>
-        <v>40000</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>1.7775889578566496E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.11109723953275268</v>
+        <f t="shared" si="3"/>
+        <v>35000</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1109999999999998E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="2"/>
+        <v>4547.2840883398667</v>
       </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
-        <f t="shared" si="2"/>
-        <v>45000</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>1.8179897335386084E-2</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.12220689447434677</v>
+        <f t="shared" si="3"/>
+        <v>40000</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="2"/>
+        <v>3978.8735772973832</v>
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
-        <f t="shared" si="2"/>
-        <v>50000</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>1.8516570814628628E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.13331654941594082</v>
+        <f t="shared" si="3"/>
+        <v>45000</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="2"/>
+        <v>3536.7765131532292</v>
       </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
-        <f t="shared" si="2"/>
-        <v>55000</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>1.8801448621485969E-2</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.14442620435753489</v>
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="2"/>
+        <v>3183.098861837907</v>
       </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
-        <f t="shared" si="2"/>
-        <v>60000</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>1.9045629779365195E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="1"/>
-        <v>0.155535859299129</v>
+        <f t="shared" si="3"/>
+        <v>55000</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1109999999999998E-2</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="2"/>
+        <v>2893.7262380344605</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
-        <f t="shared" si="2"/>
-        <v>65000</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>1.9257253584355122E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.16664551424072307</v>
+        <f t="shared" si="3"/>
+        <v>60000</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="2"/>
+        <v>2652.5823848649225</v>
       </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
-        <f t="shared" si="2"/>
-        <v>70000</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>1.944242451642236E-2</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="1"/>
-        <v>0.17775516918231712</v>
+        <f t="shared" si="3"/>
+        <v>65000</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1109999999999998E-2</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="2"/>
+        <v>2448.5375860291588</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
-        <f t="shared" si="2"/>
-        <v>75000</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>1.9605810712554541E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="1"/>
-        <v>0.18886482412391126</v>
+        <f t="shared" si="3"/>
+        <v>70000</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1109999999999998E-2</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="2"/>
+        <v>2273.6420441699333</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>75000</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1109999999999998E-2</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="2"/>
+        <v>2122.0659078919375</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <f t="shared" si="3"/>
         <v>80000</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>1.9751042949544221E-2</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="1"/>
-        <v>0.19997447906550536</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="1">
-        <f t="shared" si="2"/>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="2"/>
+        <v>1989.4367886486916</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <f t="shared" si="3"/>
         <v>85000</v>
       </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>1.9880987632621434E-2</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="1"/>
-        <v>0.21108413400709938</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="1">
-        <f t="shared" si="2"/>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="2"/>
+        <v>1872.4110951987689</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <f t="shared" si="3"/>
         <v>90000</v>
       </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>1.9997937887750741E-2</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="1"/>
-        <v>0.22219378894869352</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="1">
-        <f t="shared" si="2"/>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="2"/>
+        <v>1768.3882565766146</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <f t="shared" si="3"/>
         <v>95000</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0103750056290729E-2</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="1"/>
-        <v>0.23330344389028754</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="1">
-        <f t="shared" si="2"/>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="2"/>
+        <v>1675.3151904410036</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0199942963942338E-2</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="1"/>
-        <v>0.24441309883188164</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="1">
-        <f t="shared" si="2"/>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="2"/>
+        <v>1591.5494309189535</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <f t="shared" si="3"/>
         <v>105000</v>
       </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0287771293519729E-2</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="1"/>
-        <v>0.25552275377347577</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="1">
-        <f t="shared" si="2"/>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="2"/>
+        <v>1515.7613627799553</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <f t="shared" si="3"/>
         <v>110000</v>
       </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0368280614575962E-2</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="1"/>
-        <v>0.26663240871506977</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="1">
-        <f t="shared" si="2"/>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1109999999999998E-2</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="2"/>
+        <v>1446.8631190172302</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <f t="shared" si="3"/>
         <v>115000</v>
       </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0442349205951275E-2</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.27774206365666393</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="1">
-        <f t="shared" si="2"/>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="2"/>
+        <v>1383.9560268860464</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <f t="shared" si="3"/>
         <v>120000</v>
       </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0510720226987158E-2</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="1"/>
-        <v>0.28885171859825798</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="1">
-        <f t="shared" si="2"/>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="2"/>
+        <v>1326.2911924324612</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <f t="shared" si="3"/>
         <v>125000</v>
       </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0574026739598177E-2</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="1"/>
-        <v>0.29996137353985203</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="1">
-        <f t="shared" si="2"/>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1109999999999998E-2</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="2"/>
+        <v>1273.2395447351626</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <f t="shared" si="3"/>
         <v>130000</v>
       </c>
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0632811368483165E-2</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="1"/>
-        <v>0.31107102848144613</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="1">
-        <f t="shared" si="2"/>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1109999999999998E-2</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="2"/>
+        <v>1224.2687930145794</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <f t="shared" si="3"/>
         <v>135000</v>
       </c>
-      <c r="D27" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0687541893715244E-2</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="1"/>
-        <v>0.32218068342304024</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="1">
-        <f t="shared" si="2"/>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="2"/>
+        <v>1178.9255043844098</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <f t="shared" si="3"/>
         <v>140000</v>
       </c>
-      <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0738623724820254E-2</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="1"/>
-        <v>0.33329033836463423</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="1">
-        <f t="shared" si="2"/>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1109999999999998E-2</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="2"/>
+        <v>1136.8210220849667</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <f t="shared" si="3"/>
         <v>145000</v>
       </c>
-      <c r="D29" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0786409960522289E-2</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="1"/>
-        <v>0.34439999330622839</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="1">
-        <f t="shared" si="2"/>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="2"/>
+        <v>1097.620297185485</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <f t="shared" si="3"/>
         <v>150000</v>
       </c>
-      <c r="D30" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0831209562290624E-2</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="1"/>
-        <v>0.3555096482478225</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="1">
-        <f t="shared" si="2"/>
+      <c r="D31" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1109999999999998E-2</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="2"/>
+        <v>1061.0329539459688</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <f t="shared" si="3"/>
         <v>155000</v>
       </c>
-      <c r="D31" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0873294041789961E-2</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="1"/>
-        <v>0.36661930318941649</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="1">
-        <f t="shared" si="2"/>
+      <c r="D32" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="2"/>
+        <v>1026.806084463841</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <f t="shared" si="3"/>
         <v>160000</v>
       </c>
-      <c r="D32" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0912902968194574E-2</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="1"/>
-        <v>0.37772895813101076</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="1">
-        <f t="shared" si="2"/>
+      <c r="D33" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="2"/>
+        <v>994.71839432434581</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <f t="shared" si="3"/>
         <v>165000</v>
       </c>
-      <c r="D33" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0950248531393125E-2</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="1"/>
-        <v>0.38883861307260476</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="1">
-        <f t="shared" si="2"/>
+      <c r="D34" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="2"/>
+        <v>964.57541267815361</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <f t="shared" si="3"/>
         <v>170000</v>
       </c>
-      <c r="D34" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0985519344660666E-2</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="1"/>
-        <v>0.39994826801419875</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="1">
-        <f t="shared" si="2"/>
+      <c r="D35" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="2"/>
+        <v>936.20554759938443</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <f t="shared" si="3"/>
         <v>175000</v>
       </c>
-      <c r="D35" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1018883630682147E-2</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="1"/>
-        <v>0.41105792295579285</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="1">
-        <f t="shared" si="2"/>
+      <c r="D36" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="2"/>
+        <v>909.45681766797338</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <f t="shared" si="3"/>
         <v>180000</v>
       </c>
-      <c r="D36" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1050491904520418E-2</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="1"/>
-        <v>0.42216757789738701</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="1">
-        <f t="shared" si="2"/>
+      <c r="D37" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="2"/>
+        <v>884.1941282883073</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <f t="shared" si="3"/>
         <v>185000</v>
       </c>
-      <c r="D37" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1080479243820584E-2</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="1"/>
-        <v>0.43327723283898101</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="1">
-        <f t="shared" si="2"/>
+      <c r="D38" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="2"/>
+        <v>860.29698968592072</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <f t="shared" si="3"/>
         <v>190000</v>
       </c>
-      <c r="D38" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1108967218484206E-2</v>
-      </c>
-      <c r="E38" s="2">
-        <f t="shared" si="1"/>
-        <v>0.44438688778057506</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="1">
-        <f t="shared" si="2"/>
+      <c r="D39" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="2"/>
+        <v>837.65759522050178</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <f t="shared" si="3"/>
         <v>195000</v>
       </c>
-      <c r="D39" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1136065537952612E-2</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="1"/>
-        <v>0.45549654272216927</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="1">
-        <f t="shared" si="2"/>
+      <c r="D40" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1109999999999998E-2</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="2"/>
+        <v>816.17919534305292</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <f t="shared" si="3"/>
         <v>200000</v>
       </c>
-      <c r="D40" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1161873463164369E-2</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" si="1"/>
-        <v>0.46660619766376327</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="2"/>
+        <v>795.77471545947674</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1050,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0D8AC4-4AAF-488D-B0E3-635ED7042BBC}">
   <dimension ref="C1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,11 +1863,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2244644-D242-4850-B7EC-52FEB8CAB22D}">
   <dimension ref="C1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
@@ -2252,4 +2463,206 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49E78DE-A3A2-4BA1-B4D8-AE3252C691FC}">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8">
+        <v>15.16</v>
+      </c>
+      <c r="C2" s="8">
+        <v>15.92</v>
+      </c>
+      <c r="D2" s="8">
+        <f>1/(SQRT(B2*C2*1000000)*2*PI()*0.000000001)/1000</f>
+        <v>10.244694197119856</v>
+      </c>
+      <c r="E2" s="8">
+        <f>ABS(A2-D2)*100/A2</f>
+        <v>2.4469419711985552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>21.14</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7.53</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7.95</v>
+      </c>
+      <c r="D3" s="8">
+        <f t="shared" ref="D3:D7" si="0">1/(SQRT(B3*C3*1000000)*2*PI()*0.000000001)/1000</f>
+        <v>20.570226758119215</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:E7" si="1">ABS(A3-D3)*100/A3</f>
+        <v>2.6952376626337995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>44.7</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3.56</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3.75</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" si="0"/>
+        <v>43.55916026211257</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>2.5522141787190886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2.58</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" ref="D5" si="2">1/(SQRT(B5*C5*1000000)*2*PI()*0.000000001)/1000</f>
+        <v>63.303429160071651</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" ref="E5" si="3">ABS(A5-D5)*100/A5</f>
+        <v>2.6250897399297854</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>94.55</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1.68</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.74</v>
+      </c>
+      <c r="D6" s="8">
+        <f>1/(SQRT(B6*C6*1000000)*2*PI()*0.000000001)/1000</f>
+        <v>93.087392783296494</v>
+      </c>
+      <c r="E6" s="8">
+        <f>ABS(A6-D6)*100/A6</f>
+        <v>1.5469140314156566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>137.27000000000001</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1.159</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="D7" s="8">
+        <f>1/(SQRT(B7*C7*1000000)*2*PI()*0.000000001)/1000</f>
+        <v>135.6916283470801</v>
+      </c>
+      <c r="E7" s="8">
+        <f>ABS(A7-D7)*100/A7</f>
+        <v>1.1498300086835525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>165.69</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" ref="D8" si="4">1/(SQRT(B8*C8*1000000)*2*PI()*0.000000001)/1000</f>
+        <v>163.58381132375911</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" ref="E8" si="5">ABS(A8-D8)*100/A8</f>
+        <v>1.2711622163322411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>200</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="D9" s="8">
+        <f>1/(SQRT(B9*C9*1000000)*2*PI()*0.000000001)/1000</f>
+        <v>196.98359481879069</v>
+      </c>
+      <c r="E9" s="8">
+        <f>ABS(A9-D9)*100/A9</f>
+        <v>1.5082025906046539</v>
+      </c>
+      <c r="N9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TP4/Ejercicio-2/Cálculos.xlsx
+++ b/TP4/Ejercicio-2/Cálculos.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\germa\Documents\GitHub\LABO\TP4\Ejercicio-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EBE628-80BF-45E9-A28B-B4BA98101641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64270F8-B085-45D8-9011-497CA85C5D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{150D0140-DD95-49BE-91AF-880EEFCE36FC}"/>
   </bookViews>
   <sheets>
-    <sheet name="R=16K" sheetId="2" r:id="rId1"/>
+    <sheet name="R" sheetId="2" r:id="rId1"/>
     <sheet name="R=K795" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="R=8K" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="b) Error" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>f[Hz]</t>
   </si>
@@ -464,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F81C4A-4B2E-4256-A411-1C957A1CC369}">
-  <dimension ref="C1:L47"/>
+  <dimension ref="C1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,9 +486,6 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
@@ -540,33 +537,40 @@
         <v>15000</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D41" si="0">$H$2*$K$2*ABS((2*PI()*C3*$J$2*I3)/((2*PI()*C3*$J$2*I3)+1))*$L$2</f>
+        <f t="shared" ref="D3:D40" si="0">$H$2*$K$2*ABS((2*PI()*C3*$J$2*I3)/((2*PI()*C3*$J$2*I3)+1))*$L$2</f>
         <v>1.111E-2</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E41" si="1">$H$2*$K$2*ABS(((2*PI()*C3*$J$2*I3)+1))*$L$2</f>
+        <f t="shared" ref="E3:E40" si="1">$H$2*$K$2*ABS(((2*PI()*C3*$J$2*I3)+1))*$L$2</f>
         <v>4.444E-2</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I41" si="2">1/(2*PI()*C3*$J$2)</f>
+        <f t="shared" ref="I3:I40" si="2">1/(2*PI()*C3*$J$2)</f>
         <v>10610.32953945969</v>
       </c>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
-        <v>65010</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+        <f>C3+5000</f>
+        <v>20000</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.111E-2</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="1"/>
+        <v>4.444E-2</v>
+      </c>
       <c r="I4" s="3">
         <f t="shared" si="2"/>
-        <v>2448.1609458836383</v>
+        <v>7957.7471545947665</v>
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
-        <f>C3+5000</f>
-        <v>20000</v>
+        <f t="shared" ref="C5:C40" si="3">C4+5000</f>
+        <v>25000</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
@@ -578,13 +582,13 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="2"/>
-        <v>7957.7471545947665</v>
+        <v>6366.1977236758139</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
-        <f t="shared" ref="C6:C41" si="3">C5+5000</f>
-        <v>25000</v>
+        <f t="shared" si="3"/>
+        <v>30000</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
@@ -596,17 +600,17 @@
       </c>
       <c r="I6" s="3">
         <f t="shared" si="2"/>
-        <v>6366.1977236758139</v>
+        <v>5305.1647697298449</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>1.111E-2</v>
+        <v>1.1109999999999998E-2</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
@@ -614,17 +618,17 @@
       </c>
       <c r="I7" s="3">
         <f t="shared" si="2"/>
-        <v>5305.1647697298449</v>
+        <v>4547.2840883398667</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <f t="shared" si="3"/>
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>1.1109999999999998E-2</v>
+        <v>1.111E-2</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
@@ -632,13 +636,13 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" si="2"/>
-        <v>4547.2840883398667</v>
+        <v>3978.8735772973832</v>
       </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <f t="shared" si="3"/>
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
@@ -650,13 +654,13 @@
       </c>
       <c r="I9" s="3">
         <f t="shared" si="2"/>
-        <v>3978.8735772973832</v>
+        <v>3536.7765131532292</v>
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <f t="shared" si="3"/>
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
@@ -668,17 +672,17 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="2"/>
-        <v>3536.7765131532292</v>
+        <v>3183.098861837907</v>
       </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <f t="shared" si="3"/>
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>1.111E-2</v>
+        <v>1.1109999999999998E-2</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
@@ -686,17 +690,17 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" si="2"/>
-        <v>3183.098861837907</v>
+        <v>2893.7262380344605</v>
       </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <f t="shared" si="3"/>
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>1.1109999999999998E-2</v>
+        <v>1.111E-2</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
@@ -704,17 +708,17 @@
       </c>
       <c r="I12" s="3">
         <f t="shared" si="2"/>
-        <v>2893.7262380344605</v>
+        <v>2652.5823848649225</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <f t="shared" si="3"/>
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>1.111E-2</v>
+        <v>1.1109999999999998E-2</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
@@ -722,13 +726,13 @@
       </c>
       <c r="I13" s="3">
         <f t="shared" si="2"/>
-        <v>2652.5823848649225</v>
+        <v>2448.5375860291588</v>
       </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <f t="shared" si="3"/>
-        <v>65000</v>
+        <v>70000</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
@@ -740,13 +744,13 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" si="2"/>
-        <v>2448.5375860291588</v>
+        <v>2273.6420441699333</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>75000</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
@@ -758,17 +762,17 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="2"/>
-        <v>2273.6420441699333</v>
+        <v>2122.0659078919375</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <f t="shared" si="3"/>
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
-        <v>1.1109999999999998E-2</v>
+        <v>1.111E-2</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="1"/>
@@ -776,13 +780,13 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" si="2"/>
-        <v>2122.0659078919375</v>
+        <v>1989.4367886486916</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <f t="shared" si="3"/>
-        <v>80000</v>
+        <v>85000</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" si="0"/>
@@ -794,13 +798,13 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" si="2"/>
-        <v>1989.4367886486916</v>
+        <v>1872.4110951987689</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <f t="shared" si="3"/>
-        <v>85000</v>
+        <v>90000</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
@@ -812,13 +816,13 @@
       </c>
       <c r="I18" s="3">
         <f t="shared" si="2"/>
-        <v>1872.4110951987689</v>
+        <v>1768.3882565766146</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <f t="shared" si="3"/>
-        <v>90000</v>
+        <v>95000</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
@@ -830,13 +834,13 @@
       </c>
       <c r="I19" s="3">
         <f t="shared" si="2"/>
-        <v>1768.3882565766146</v>
+        <v>1675.3151904410036</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <f t="shared" si="3"/>
-        <v>95000</v>
+        <v>100000</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
@@ -848,13 +852,13 @@
       </c>
       <c r="I20" s="3">
         <f t="shared" si="2"/>
-        <v>1675.3151904410036</v>
+        <v>1591.5494309189535</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <f t="shared" si="3"/>
-        <v>100000</v>
+        <v>105000</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
@@ -866,17 +870,17 @@
       </c>
       <c r="I21" s="3">
         <f t="shared" si="2"/>
-        <v>1591.5494309189535</v>
+        <v>1515.7613627799553</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <f t="shared" si="3"/>
-        <v>105000</v>
+        <v>110000</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
-        <v>1.111E-2</v>
+        <v>1.1109999999999998E-2</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="1"/>
@@ -884,17 +888,17 @@
       </c>
       <c r="I22" s="3">
         <f t="shared" si="2"/>
-        <v>1515.7613627799553</v>
+        <v>1446.8631190172302</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <f t="shared" si="3"/>
-        <v>110000</v>
+        <v>115000</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
-        <v>1.1109999999999998E-2</v>
+        <v>1.111E-2</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="1"/>
@@ -902,13 +906,13 @@
       </c>
       <c r="I23" s="3">
         <f t="shared" si="2"/>
-        <v>1446.8631190172302</v>
+        <v>1383.9560268860464</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <f t="shared" si="3"/>
-        <v>115000</v>
+        <v>120000</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
@@ -920,17 +924,17 @@
       </c>
       <c r="I24" s="3">
         <f t="shared" si="2"/>
-        <v>1383.9560268860464</v>
+        <v>1326.2911924324612</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>125000</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="0"/>
-        <v>1.111E-2</v>
+        <v>1.1109999999999998E-2</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="1"/>
@@ -938,13 +942,13 @@
       </c>
       <c r="I25" s="3">
         <f t="shared" si="2"/>
-        <v>1326.2911924324612</v>
+        <v>1273.2395447351626</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <f t="shared" si="3"/>
-        <v>125000</v>
+        <v>130000</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
@@ -956,17 +960,17 @@
       </c>
       <c r="I26" s="3">
         <f t="shared" si="2"/>
-        <v>1273.2395447351626</v>
+        <v>1224.2687930145794</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
         <f t="shared" si="3"/>
-        <v>130000</v>
+        <v>135000</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" si="0"/>
-        <v>1.1109999999999998E-2</v>
+        <v>1.111E-2</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="1"/>
@@ -974,17 +978,17 @@
       </c>
       <c r="I27" s="3">
         <f t="shared" si="2"/>
-        <v>1224.2687930145794</v>
+        <v>1178.9255043844098</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <f t="shared" si="3"/>
-        <v>135000</v>
+        <v>140000</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" si="0"/>
-        <v>1.111E-2</v>
+        <v>1.1109999999999998E-2</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="1"/>
@@ -992,17 +996,17 @@
       </c>
       <c r="I28" s="3">
         <f t="shared" si="2"/>
-        <v>1178.9255043844098</v>
+        <v>1136.8210220849667</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <f t="shared" si="3"/>
-        <v>140000</v>
+        <v>145000</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" si="0"/>
-        <v>1.1109999999999998E-2</v>
+        <v>1.111E-2</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="1"/>
@@ -1010,17 +1014,17 @@
       </c>
       <c r="I29" s="3">
         <f t="shared" si="2"/>
-        <v>1136.8210220849667</v>
+        <v>1097.620297185485</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
         <f t="shared" si="3"/>
-        <v>145000</v>
+        <v>150000</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" si="0"/>
-        <v>1.111E-2</v>
+        <v>1.1109999999999998E-2</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="1"/>
@@ -1028,17 +1032,17 @@
       </c>
       <c r="I30" s="3">
         <f t="shared" si="2"/>
-        <v>1097.620297185485</v>
+        <v>1061.0329539459688</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
         <f t="shared" si="3"/>
-        <v>150000</v>
+        <v>155000</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" si="0"/>
-        <v>1.1109999999999998E-2</v>
+        <v>1.111E-2</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="1"/>
@@ -1046,13 +1050,13 @@
       </c>
       <c r="I31" s="3">
         <f t="shared" si="2"/>
-        <v>1061.0329539459688</v>
+        <v>1026.806084463841</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
         <f t="shared" si="3"/>
-        <v>155000</v>
+        <v>160000</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" si="0"/>
@@ -1064,13 +1068,13 @@
       </c>
       <c r="I32" s="3">
         <f t="shared" si="2"/>
-        <v>1026.806084463841</v>
+        <v>994.71839432434581</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
         <f t="shared" si="3"/>
-        <v>160000</v>
+        <v>165000</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" si="0"/>
@@ -1082,13 +1086,13 @@
       </c>
       <c r="I33" s="3">
         <f t="shared" si="2"/>
-        <v>994.71839432434581</v>
+        <v>964.57541267815361</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
         <f t="shared" si="3"/>
-        <v>165000</v>
+        <v>170000</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" si="0"/>
@@ -1100,13 +1104,13 @@
       </c>
       <c r="I34" s="3">
         <f t="shared" si="2"/>
-        <v>964.57541267815361</v>
+        <v>936.20554759938443</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <f t="shared" si="3"/>
-        <v>170000</v>
+        <v>175000</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" si="0"/>
@@ -1118,13 +1122,13 @@
       </c>
       <c r="I35" s="3">
         <f t="shared" si="2"/>
-        <v>936.20554759938443</v>
+        <v>909.45681766797338</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <f t="shared" si="3"/>
-        <v>175000</v>
+        <v>180000</v>
       </c>
       <c r="D36" s="4">
         <f t="shared" si="0"/>
@@ -1136,13 +1140,13 @@
       </c>
       <c r="I36" s="3">
         <f t="shared" si="2"/>
-        <v>909.45681766797338</v>
+        <v>884.1941282883073</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <f t="shared" si="3"/>
-        <v>180000</v>
+        <v>185000</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" si="0"/>
@@ -1154,13 +1158,13 @@
       </c>
       <c r="I37" s="3">
         <f t="shared" si="2"/>
-        <v>884.1941282883073</v>
+        <v>860.29698968592072</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
         <f t="shared" si="3"/>
-        <v>185000</v>
+        <v>190000</v>
       </c>
       <c r="D38" s="4">
         <f t="shared" si="0"/>
@@ -1172,17 +1176,17 @@
       </c>
       <c r="I38" s="3">
         <f t="shared" si="2"/>
-        <v>860.29698968592072</v>
+        <v>837.65759522050178</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C39" s="1">
         <f t="shared" si="3"/>
-        <v>190000</v>
+        <v>195000</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" si="0"/>
-        <v>1.111E-2</v>
+        <v>1.1109999999999998E-2</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" si="1"/>
@@ -1190,17 +1194,17 @@
       </c>
       <c r="I39" s="3">
         <f t="shared" si="2"/>
-        <v>837.65759522050178</v>
+        <v>816.17919534305292</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C40" s="1">
         <f t="shared" si="3"/>
-        <v>195000</v>
+        <v>200000</v>
       </c>
       <c r="D40" s="4">
         <f t="shared" si="0"/>
-        <v>1.1109999999999998E-2</v>
+        <v>1.111E-2</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" si="1"/>
@@ -1208,26 +1212,11 @@
       </c>
       <c r="I40" s="3">
         <f t="shared" si="2"/>
-        <v>816.17919534305292</v>
+        <v>795.77471545947674</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="1">
-        <f t="shared" si="3"/>
-        <v>200000</v>
-      </c>
-      <c r="D41" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E41" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
-      </c>
-      <c r="I41" s="3">
-        <f t="shared" si="2"/>
-        <v>795.77471545947674</v>
-      </c>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
@@ -1243,9 +1232,6 @@
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2470,7 +2456,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2479,7 +2465,7 @@
     <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2529,11 +2515,11 @@
         <v>7.95</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" ref="D3:D7" si="0">1/(SQRT(B3*C3*1000000)*2*PI()*0.000000001)/1000</f>
+        <f t="shared" ref="D3:D4" si="0">1/(SQRT(B3*C3*1000000)*2*PI()*0.000000001)/1000</f>
         <v>20.570226758119215</v>
       </c>
       <c r="E3" s="8">
-        <f t="shared" ref="E3:E7" si="1">ABS(A3-D3)*100/A3</f>
+        <f t="shared" ref="E3:E4" si="1">ABS(A3-D3)*100/A3</f>
         <v>2.6952376626337995</v>
       </c>
     </row>
@@ -2658,6 +2644,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E10" s="3">
+        <f>AVERAGE(E2:E9)</f>
+        <v>1.9744490499396667</v>
+      </c>
       <c r="O10" t="s">
         <v>11</v>
       </c>

--- a/TP4/Ejercicio-2/Cálculos.xlsx
+++ b/TP4/Ejercicio-2/Cálculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\germa\Documents\GitHub\LABO\TP4\Ejercicio-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64270F8-B085-45D8-9011-497CA85C5D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6E8E27-535A-43B6-B498-E763FEEC5332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{150D0140-DD95-49BE-91AF-880EEFCE36FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{150D0140-DD95-49BE-91AF-880EEFCE36FC}"/>
   </bookViews>
   <sheets>
     <sheet name="R" sheetId="2" r:id="rId1"/>
@@ -466,14 +466,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F81C4A-4B2E-4256-A411-1C957A1CC369}">
   <dimension ref="C1:L46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.25">
@@ -2455,7 +2456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49E78DE-A3A2-4BA1-B4D8-AE3252C691FC}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/TP4/Ejercicio-2/Cálculos.xlsx
+++ b/TP4/Ejercicio-2/Cálculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\germa\Documents\GitHub\LABO\TP4\Ejercicio-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6E8E27-535A-43B6-B498-E763FEEC5332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AF7591-4922-4387-A649-9591A33BB1D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{150D0140-DD95-49BE-91AF-880EEFCE36FC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>f[Hz]</t>
   </si>
@@ -88,6 +88,12 @@
   <si>
     <t>$\mathbf{P_{R3} + P_{R4} \ [k\Omega]}$</t>
   </si>
+  <si>
+    <t>DeltaR</t>
+  </si>
+  <si>
+    <t>i/i+1</t>
+  </si>
 </sst>
 </file>
 
@@ -95,7 +101,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -131,7 +137,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -150,6 +155,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F81C4A-4B2E-4256-A411-1C957A1CC369}">
-  <dimension ref="C1:L46"/>
+  <dimension ref="C1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +483,7 @@
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -500,20 +506,23 @@
         <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
         <v>10000</v>
       </c>
-      <c r="D2" s="4">
-        <f>$H$2*$K$2*ABS((2*PI()*C2*$J$2*I2)/((2*PI()*C2*$J$2*I2)+1))*$L$2</f>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E2" s="4">
-        <f>$H$2*$K$2*ABS(((2*PI()*C2*$J$2*I2)+1))*$L$2</f>
-        <v>4.444E-2</v>
+      <c r="D2" s="10">
+        <f>$H$2*$K$2*$M$2*($L$2*$N$2/I2)</f>
+        <v>1.9741190182109999E-2</v>
+      </c>
+      <c r="E2" s="10">
+        <f>$H$2*$K$2*$M$2*($L$2*$N$2/I2)</f>
+        <v>1.9741190182109999E-2</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -529,255 +538,262 @@
         <v>0.22220000000000001</v>
       </c>
       <c r="L2">
+        <f>(1/100)</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="N2" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C3" s="1">
         <f>C2+5000</f>
         <v>15000</v>
       </c>
-      <c r="D3" s="4">
-        <f t="shared" ref="D3:D40" si="0">$H$2*$K$2*ABS((2*PI()*C3*$J$2*I3)/((2*PI()*C3*$J$2*I3)+1))*$L$2</f>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E3" s="4">
-        <f t="shared" ref="E3:E40" si="1">$H$2*$K$2*ABS(((2*PI()*C3*$J$2*I3)+1))*$L$2</f>
-        <v>4.444E-2</v>
+      <c r="D3" s="10">
+        <f t="shared" ref="D3:D40" si="0">$H$2*$K$2*$M$2*($L$2*$N$2/I3)</f>
+        <v>2.9611785273164999E-2</v>
+      </c>
+      <c r="E3" s="10">
+        <f t="shared" ref="E3:E40" si="1">$H$2*$K$2*$M$2*($L$2*$N$2/I3)</f>
+        <v>2.9611785273164999E-2</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I40" si="2">1/(2*PI()*C3*$J$2)</f>
         <v>10610.32953945969</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <f>C3+5000</f>
         <v>20000</v>
       </c>
-      <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E4" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D4" s="10">
+        <f t="shared" si="0"/>
+        <v>3.9482380364219999E-2</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" si="1"/>
+        <v>3.9482380364219999E-2</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="2"/>
         <v>7957.7471545947665</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <f t="shared" ref="C5:C40" si="3">C4+5000</f>
         <v>25000</v>
       </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D5" s="10">
+        <f t="shared" si="0"/>
+        <v>4.9352975455274992E-2</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" si="1"/>
+        <v>4.9352975455274992E-2</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="2"/>
         <v>6366.1977236758139</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <f t="shared" si="3"/>
         <v>30000</v>
       </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
+        <v>5.9223570546329998E-2</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="1"/>
+        <v>5.9223570546329998E-2</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="2"/>
         <v>5305.1647697298449</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <f t="shared" si="3"/>
         <v>35000</v>
       </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1109999999999998E-2</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>6.9094165637385005E-2</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="1"/>
+        <v>6.9094165637385005E-2</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="2"/>
         <v>4547.2840883398667</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <f t="shared" si="3"/>
         <v>40000</v>
       </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>7.8964760728439998E-2</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="1"/>
+        <v>7.8964760728439998E-2</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="2"/>
         <v>3978.8735772973832</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <f t="shared" si="3"/>
         <v>45000</v>
       </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>8.8835355819495004E-2</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="1"/>
+        <v>8.8835355819495004E-2</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="2"/>
         <v>3536.7765131532292</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>9.8705950910549983E-2</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="1"/>
+        <v>9.8705950910549983E-2</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="2"/>
         <v>3183.098861837907</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <f t="shared" si="3"/>
         <v>55000</v>
       </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1109999999999998E-2</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.108576546001605</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="1"/>
+        <v>0.108576546001605</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="2"/>
         <v>2893.7262380344605</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <f t="shared" si="3"/>
         <v>60000</v>
       </c>
-      <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.11844714109266</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="1"/>
+        <v>0.11844714109266</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="2"/>
         <v>2652.5823848649225</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <f t="shared" si="3"/>
         <v>65000</v>
       </c>
-      <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1109999999999998E-2</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.128317736183715</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="1"/>
+        <v>0.128317736183715</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="2"/>
         <v>2448.5375860291588</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <f t="shared" si="3"/>
         <v>70000</v>
       </c>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1109999999999998E-2</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.13818833127477001</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="1"/>
+        <v>0.13818833127477001</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="2"/>
         <v>2273.6420441699333</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <f t="shared" si="3"/>
         <v>75000</v>
       </c>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1109999999999998E-2</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.14805892636582502</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="1"/>
+        <v>0.14805892636582502</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="2"/>
         <v>2122.0659078919375</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <f t="shared" si="3"/>
         <v>80000</v>
       </c>
-      <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D16" s="10">
+        <f t="shared" si="0"/>
+        <v>0.15792952145688</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="1"/>
+        <v>0.15792952145688</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="2"/>
@@ -789,13 +805,13 @@
         <f t="shared" si="3"/>
         <v>85000</v>
       </c>
-      <c r="D17" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D17" s="10">
+        <f t="shared" si="0"/>
+        <v>0.16780011654793497</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="1"/>
+        <v>0.16780011654793497</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="2"/>
@@ -807,13 +823,13 @@
         <f t="shared" si="3"/>
         <v>90000</v>
       </c>
-      <c r="D18" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D18" s="10">
+        <f t="shared" si="0"/>
+        <v>0.17767071163899001</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.17767071163899001</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="2"/>
@@ -825,13 +841,13 @@
         <f t="shared" si="3"/>
         <v>95000</v>
       </c>
-      <c r="D19" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D19" s="10">
+        <f t="shared" si="0"/>
+        <v>0.18754130673004499</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="1"/>
+        <v>0.18754130673004499</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="2"/>
@@ -843,13 +859,13 @@
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="D20" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D20" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19741190182109997</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="1"/>
+        <v>0.19741190182109997</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="2"/>
@@ -861,13 +877,13 @@
         <f t="shared" si="3"/>
         <v>105000</v>
       </c>
-      <c r="D21" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E21" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D21" s="10">
+        <f t="shared" si="0"/>
+        <v>0.20728249691215506</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="1"/>
+        <v>0.20728249691215506</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="2"/>
@@ -879,13 +895,13 @@
         <f t="shared" si="3"/>
         <v>110000</v>
       </c>
-      <c r="D22" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1109999999999998E-2</v>
-      </c>
-      <c r="E22" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D22" s="10">
+        <f t="shared" si="0"/>
+        <v>0.21715309200321001</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="1"/>
+        <v>0.21715309200321001</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="2"/>
@@ -897,13 +913,13 @@
         <f t="shared" si="3"/>
         <v>115000</v>
       </c>
-      <c r="D23" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E23" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D23" s="10">
+        <f t="shared" si="0"/>
+        <v>0.22702368709426499</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="1"/>
+        <v>0.22702368709426499</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="2"/>
@@ -915,13 +931,13 @@
         <f t="shared" si="3"/>
         <v>120000</v>
       </c>
-      <c r="D24" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E24" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D24" s="10">
+        <f t="shared" si="0"/>
+        <v>0.23689428218531999</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="1"/>
+        <v>0.23689428218531999</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="2"/>
@@ -933,13 +949,13 @@
         <f t="shared" si="3"/>
         <v>125000</v>
       </c>
-      <c r="D25" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1109999999999998E-2</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D25" s="10">
+        <f t="shared" si="0"/>
+        <v>0.24676487727637503</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" si="1"/>
+        <v>0.24676487727637503</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="2"/>
@@ -951,13 +967,13 @@
         <f t="shared" si="3"/>
         <v>130000</v>
       </c>
-      <c r="D26" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1109999999999998E-2</v>
-      </c>
-      <c r="E26" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D26" s="10">
+        <f t="shared" si="0"/>
+        <v>0.25663547236743001</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>0.25663547236743001</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="2"/>
@@ -969,13 +985,13 @@
         <f t="shared" si="3"/>
         <v>135000</v>
       </c>
-      <c r="D27" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E27" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D27" s="10">
+        <f t="shared" si="0"/>
+        <v>0.26650606745848504</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
+        <v>0.26650606745848504</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="2"/>
@@ -987,13 +1003,13 @@
         <f t="shared" si="3"/>
         <v>140000</v>
       </c>
-      <c r="D28" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1109999999999998E-2</v>
-      </c>
-      <c r="E28" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D28" s="10">
+        <f t="shared" si="0"/>
+        <v>0.27637666254954002</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" si="1"/>
+        <v>0.27637666254954002</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="2"/>
@@ -1005,13 +1021,13 @@
         <f t="shared" si="3"/>
         <v>145000</v>
       </c>
-      <c r="D29" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E29" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D29" s="10">
+        <f t="shared" si="0"/>
+        <v>0.286247257640595</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" si="1"/>
+        <v>0.286247257640595</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="2"/>
@@ -1023,13 +1039,13 @@
         <f t="shared" si="3"/>
         <v>150000</v>
       </c>
-      <c r="D30" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1109999999999998E-2</v>
-      </c>
-      <c r="E30" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D30" s="10">
+        <f t="shared" si="0"/>
+        <v>0.29611785273165003</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" si="1"/>
+        <v>0.29611785273165003</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="2"/>
@@ -1041,13 +1057,13 @@
         <f t="shared" si="3"/>
         <v>155000</v>
       </c>
-      <c r="D31" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E31" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D31" s="10">
+        <f t="shared" si="0"/>
+        <v>0.30598844782270496</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" si="1"/>
+        <v>0.30598844782270496</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" si="2"/>
@@ -1059,13 +1075,13 @@
         <f t="shared" si="3"/>
         <v>160000</v>
       </c>
-      <c r="D32" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E32" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D32" s="10">
+        <f t="shared" si="0"/>
+        <v>0.31585904291375999</v>
+      </c>
+      <c r="E32" s="10">
+        <f t="shared" si="1"/>
+        <v>0.31585904291375999</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="2"/>
@@ -1077,13 +1093,13 @@
         <f t="shared" si="3"/>
         <v>165000</v>
       </c>
-      <c r="D33" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E33" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D33" s="10">
+        <f t="shared" si="0"/>
+        <v>0.32572963800481497</v>
+      </c>
+      <c r="E33" s="10">
+        <f t="shared" si="1"/>
+        <v>0.32572963800481497</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="2"/>
@@ -1095,13 +1111,13 @@
         <f t="shared" si="3"/>
         <v>170000</v>
       </c>
-      <c r="D34" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E34" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D34" s="10">
+        <f t="shared" si="0"/>
+        <v>0.33560023309586995</v>
+      </c>
+      <c r="E34" s="10">
+        <f t="shared" si="1"/>
+        <v>0.33560023309586995</v>
       </c>
       <c r="I34" s="3">
         <f t="shared" si="2"/>
@@ -1113,13 +1129,13 @@
         <f t="shared" si="3"/>
         <v>175000</v>
       </c>
-      <c r="D35" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E35" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D35" s="10">
+        <f t="shared" si="0"/>
+        <v>0.34547082818692498</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" si="1"/>
+        <v>0.34547082818692498</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" si="2"/>
@@ -1131,13 +1147,13 @@
         <f t="shared" si="3"/>
         <v>180000</v>
       </c>
-      <c r="D36" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E36" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D36" s="10">
+        <f t="shared" si="0"/>
+        <v>0.35534142327798002</v>
+      </c>
+      <c r="E36" s="10">
+        <f t="shared" si="1"/>
+        <v>0.35534142327798002</v>
       </c>
       <c r="I36" s="3">
         <f t="shared" si="2"/>
@@ -1149,13 +1165,13 @@
         <f t="shared" si="3"/>
         <v>185000</v>
       </c>
-      <c r="D37" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E37" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D37" s="10">
+        <f t="shared" si="0"/>
+        <v>0.365212018369035</v>
+      </c>
+      <c r="E37" s="10">
+        <f t="shared" si="1"/>
+        <v>0.365212018369035</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" si="2"/>
@@ -1167,13 +1183,13 @@
         <f t="shared" si="3"/>
         <v>190000</v>
       </c>
-      <c r="D38" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E38" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D38" s="10">
+        <f t="shared" si="0"/>
+        <v>0.37508261346008998</v>
+      </c>
+      <c r="E38" s="10">
+        <f t="shared" si="1"/>
+        <v>0.37508261346008998</v>
       </c>
       <c r="I38" s="3">
         <f t="shared" si="2"/>
@@ -1185,13 +1201,13 @@
         <f t="shared" si="3"/>
         <v>195000</v>
       </c>
-      <c r="D39" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1109999999999998E-2</v>
-      </c>
-      <c r="E39" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D39" s="10">
+        <f t="shared" si="0"/>
+        <v>0.38495320855114501</v>
+      </c>
+      <c r="E39" s="10">
+        <f t="shared" si="1"/>
+        <v>0.38495320855114501</v>
       </c>
       <c r="I39" s="3">
         <f t="shared" si="2"/>
@@ -1203,13 +1219,13 @@
         <f t="shared" si="3"/>
         <v>200000</v>
       </c>
-      <c r="D40" s="4">
-        <f t="shared" si="0"/>
-        <v>1.111E-2</v>
-      </c>
-      <c r="E40" s="4">
-        <f t="shared" si="1"/>
-        <v>4.444E-2</v>
+      <c r="D40" s="10">
+        <f t="shared" si="0"/>
+        <v>0.39482380364219993</v>
+      </c>
+      <c r="E40" s="10">
+        <f t="shared" si="1"/>
+        <v>0.39482380364219993</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="2"/>
@@ -2470,170 +2486,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>10</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>15.16</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>15.92</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <f>1/(SQRT(B2*C2*1000000)*2*PI()*0.000000001)/1000</f>
         <v>10.244694197119856</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <f>ABS(A2-D2)*100/A2</f>
         <v>2.4469419711985552</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>21.14</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>7.53</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>7.95</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <f t="shared" ref="D3:D4" si="0">1/(SQRT(B3*C3*1000000)*2*PI()*0.000000001)/1000</f>
         <v>20.570226758119215</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <f t="shared" ref="E3:E4" si="1">ABS(A3-D3)*100/A3</f>
         <v>2.6952376626337995</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>44.7</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>3.56</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>3.75</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <f t="shared" si="0"/>
         <v>43.55916026211257</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <f t="shared" si="1"/>
         <v>2.5522141787190886</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>65.010000000000005</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>2.58</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <f t="shared" ref="D5" si="2">1/(SQRT(B5*C5*1000000)*2*PI()*0.000000001)/1000</f>
         <v>63.303429160071651</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <f t="shared" ref="E5" si="3">ABS(A5-D5)*100/A5</f>
         <v>2.6250897399297854</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>94.55</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1.68</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1.74</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <f>1/(SQRT(B6*C6*1000000)*2*PI()*0.000000001)/1000</f>
         <v>93.087392783296494</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f>ABS(A6-D6)*100/A6</f>
         <v>1.5469140314156566</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>137.27000000000001</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>1.159</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>1.1870000000000001</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <f>1/(SQRT(B7*C7*1000000)*2*PI()*0.000000001)/1000</f>
         <v>135.6916283470801</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <f>ABS(A7-D7)*100/A7</f>
         <v>1.1498300086835525</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>165.69</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>0.96099999999999997</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.98499999999999999</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <f t="shared" ref="D8" si="4">1/(SQRT(B8*C8*1000000)*2*PI()*0.000000001)/1000</f>
         <v>163.58381132375911</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <f t="shared" ref="E8" si="5">ABS(A8-D8)*100/A8</f>
         <v>1.2711622163322411</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>200</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>0.8</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>0.81599999999999995</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <f>1/(SQRT(B9*C9*1000000)*2*PI()*0.000000001)/1000</f>
         <v>196.98359481879069</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <f>ABS(A9-D9)*100/A9</f>
         <v>1.5082025906046539</v>
       </c>
